--- a/docs/Classifcation Reports/LinearSVC()_1.xlsx
+++ b/docs/Classifcation Reports/LinearSVC()_1.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8543461237274863</v>
+        <v>0.8693910256410257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.936480686695279</v>
+        <v>0.9385813148788927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8935298935298934</v>
+        <v>0.9026622296173045</v>
       </c>
       <c r="E2" t="n">
-        <v>1165</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9634340222575517</v>
+        <v>0.9633757961783439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9380804953560371</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9505882352941176</v>
+        <v>0.9475332811276428</v>
       </c>
       <c r="E3" t="n">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8524173027989822</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8382923673997412</v>
+        <v>0.850253807106599</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8476128188358404</v>
+        <v>0.8513341804320204</v>
       </c>
       <c r="E4" t="n">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8453237410071942</v>
+        <v>0.8597122302158273</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6601123595505618</v>
+        <v>0.6887608069164265</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7413249211356467</v>
+        <v>0.7648000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8840136054421769</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8840136054421769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8840136054421769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8840136054421769</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8800616860337723</v>
+        <v>0.8862240887085447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8432414772504049</v>
+        <v>0.8524498296831067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8582639671988745</v>
+        <v>0.8665824227942419</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8779586030241121</v>
+        <v>0.8844462230786601</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8840136054421769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8755641860022859</v>
+        <v>0.8825386296156041</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
